--- a/target/test-classes/input/product.xlsx
+++ b/target/test-classes/input/product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Product</t>
   </si>
@@ -80,6 +80,27 @@
   </si>
   <si>
     <t>2020 Lenovo ThinkPad X1 Extreme Gen 1 15.6" FHD Laptop Computer, Intel 6 Core i7-8750H, 32GB DDR4, 2TB PCIe SSD, NVIDIA GeForce GTX 1050Ti Max-Q, Windows 10 + EST External DVD+ Accessories</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 Pentium Gold 5405U 15.6 inch HD Thin and Light Laptop ( 4GB RAM / 1 TB HDD / Windows 10 Home / Black / 1.85 Kg), 81MV00LYIN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 120s Intel Pentium Quad Core 14-inch Thin &amp; Light Laptop (4GB RAM/128GB SSD/Windows 10 Home/Mineral Grey/1.5kg), 81A500E1IN</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad 320E-15IKB 15.6-inch FHD IPS Display Laptop 80XL03R8IH (7th Gen Core i5-7200U/ 8GB Ram /1TB HDD /Windows 10), Onyx Black.</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad S340 81WL002RIN 15.6-inch FHD IPS Thin and Light Laptop (10th Gen CORE I5-1035G1/8GB/1TB HDD + 256GB SSD/Windows 10/Microsoft Office/2GB Graphics), Platinum Grey</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 130 8th Gen Intel Core I5 15.6 inch HD Laptop (8GB RAM/ 1 TB HDD/ Windows 10 Home /NVIDIA MX110 2GB Graphics/ Black / 2.1Kg), 81H7009SIN</t>
+  </si>
+  <si>
+    <t>Lenovo Legion Y540 9th Gen Intel Core i5 15.6 FHD inch Laptop (8GB/1TB SSD/Windows 10/6GB GTX 1660 Ti/Black/2.3Kg), 81SX00GHIN</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad 330 Intel Core i3 7th Gen 15.6-inch Full HD Laptop (4GB RAM/1 TB HDD/Windows 10 Home/MS Office 2016/Onyx Black/2.2 kg/with DVD Drive), 81DE01PNIN</t>
   </si>
 </sst>
 </file>
@@ -443,82 +464,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
